--- a/Projekttagebuch.xlsx
+++ b/Projekttagebuch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7B2295-CAE2-4128-8C8B-1DE7B4FAFA9C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE4217-B1EA-4FC7-BCB1-6138C9D19101}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Sprint</t>
   </si>
@@ -127,19 +127,40 @@
     <t>Michael Schrabauer,Stefan Humpelstetter</t>
   </si>
   <si>
-    <t>Wireframes</t>
-  </si>
-  <si>
     <t>erstellen erster Skizzen der Oberfläche</t>
   </si>
   <si>
-    <t>in Arbeit</t>
-  </si>
-  <si>
-    <t>Schnittstellen</t>
-  </si>
-  <si>
-    <t>definieren der Schnittstellen</t>
+    <t>18.10.2018-8.11.2018</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Ablaufdiaramm</t>
+  </si>
+  <si>
+    <t>zusammenhängen der Mockups und den Ablauf darzustellen</t>
+  </si>
+  <si>
+    <t>Stefan Humoelstetter,Michael Schrabauer</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>15.11.2018-22.11.2018</t>
+  </si>
+  <si>
+    <t>Modelschicht</t>
+  </si>
+  <si>
+    <t>erstellen der Modellschicht in Laravel</t>
+  </si>
+  <si>
+    <t>Komponenten festlegen</t>
+  </si>
+  <si>
+    <t>Komponenten für die Klassen übersicht erstellen</t>
   </si>
 </sst>
 </file>
@@ -255,65 +276,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -594,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:O5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,97 +628,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="15">
         <v>43356</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="7" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="16">
         <v>43377</v>
       </c>
       <c r="F4" s="9"/>
@@ -715,18 +735,18 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="16">
         <v>43384</v>
       </c>
       <c r="F5" s="9"/>
@@ -743,81 +763,81 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>43384</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="17" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="15">
         <v>43363</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="7" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="16">
         <v>43370</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
@@ -831,21 +851,21 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="16">
         <v>43363</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
@@ -859,176 +879,407 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>43370</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="17" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15">
         <v>43391</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16">
         <v>43391</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="16">
+        <v>43391</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2">
-        <v>43391</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="14">
+        <v>43412</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43391</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" t="s">
-        <v>37</v>
-      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
+  <mergeCells count="112">
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="E4:F4"/>
@@ -1037,8 +1288,54 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F2"/>
+    <mergeCell ref="M1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:L2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
